--- a/Projects/BATRU_SAND/Data/p5_template.xlsx
+++ b/Projects/BATRU_SAND/Data/p5_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -76,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -100,15 +101,21 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -121,6 +128,27 @@
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -156,25 +184,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -197,96 +237,100 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E5"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.6428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="70.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="56.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="70.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="56.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="56.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="7" t="n">
         <v>0</v>
       </c>
     </row>
